--- a/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
+++ b/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">NOM et prénom : PORTE Quentin</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
+    <t xml:space="preserve">N° candidat : 2149133287</t>
   </si>
   <si>
     <t xml:space="preserve">Centre de formation : Lycée Jacques-Brel</t>
@@ -552,7 +552,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -656,12 +656,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -669,12 +664,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1013,7 +1002,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1126,24 +1115,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1248,14 +1229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,7 +1245,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="9" style="2" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="3" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="3" width="10.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1965,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="23"/>
@@ -2109,12 +2090,12 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
     </row>
-    <row r="22" s="18" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="18" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="23"/>
@@ -2159,11 +2140,11 @@
       <c r="AQ22" s="2"/>
     </row>
     <row r="23" s="18" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="23"/>
@@ -2208,11 +2189,11 @@
       <c r="AQ23" s="2"/>
     </row>
     <row r="24" s="18" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="23"/>
@@ -2352,14 +2333,14 @@
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
     </row>
-    <row r="27" s="18" customFormat="true" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="18" customFormat="true" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="0"/>
+      <c r="C27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2405,11 +2386,11 @@
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="0"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
@@ -2454,8 +2435,8 @@
         <v>57</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="23"/>
@@ -2505,7 +2486,7 @@
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="23"/>
@@ -2554,9 +2535,9 @@
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="22" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="24"/>
@@ -2597,14 +2578,14 @@
       <c r="AQ31" s="2"/>
     </row>
     <row r="32" s="18" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2642,14 +2623,14 @@
       <c r="AQ32" s="2"/>
     </row>
     <row r="33" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2687,14 +2668,14 @@
       <c r="AQ33" s="2"/>
     </row>
     <row r="34" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2732,14 +2713,14 @@
       <c r="AQ34" s="2"/>
     </row>
     <row r="35" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2777,14 +2758,14 @@
       <c r="AQ35" s="2"/>
     </row>
     <row r="36" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2822,14 +2803,14 @@
       <c r="AQ36" s="2"/>
     </row>
     <row r="37" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2867,14 +2848,14 @@
       <c r="AQ37" s="2"/>
     </row>
     <row r="38" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2912,14 +2893,14 @@
       <c r="AQ38" s="2"/>
     </row>
     <row r="39" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2957,404 +2938,404 @@
       <c r="AQ39" s="2"/>
     </row>
     <row r="40" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="56" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
     </row>
     <row r="57" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
     </row>
     <row r="59" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
     </row>
     <row r="63" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
     </row>
     <row r="72" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
     </row>
     <row r="73" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
     </row>
     <row r="74" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
     </row>
     <row r="76" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
     </row>
     <row r="79" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
     </row>
     <row r="80" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
@@ -3440,8 +3421,8 @@
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
+++ b/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -124,38 +124,42 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Modification de Logeproj – Ajout de la vue de la table catégoriefrais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modification de Logeproj – Ajout de la vue de la table typeconge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout de chiffrement d’un mot de passe à une application en utilisant le principe de sel et poivre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veille technologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préparation du portfolio et de sa présentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation d’outils de développement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation du SDK de Xprotect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Onvif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respect du Cadre de Cohérence Technique du Ministère de l’intérieur</t>
+    <t xml:space="preserve">Utilisation de Gitlab afin de réaliser de la gestion de versions, création de branches de travail</t>
   </si>
   <si>
     <t xml:space="preserve">Du 30/11/2023
 Au 31/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification de Logeproj – Ajout de la vue de la table typeconge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du 01/01/2025
+Au 01/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de chiffrement d’un mot de passe à une application en utilisant le principe de sel et poivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veille technologique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation du portfolio et de sa présentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation d’outils de développement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement d’un plugin pour Milestone Xprotect, utilisation du SDK de Xprotect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Onvif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respect du Cadre de Cohérence Technique du Ministère de l’intérieur</t>
   </si>
   <si>
     <t xml:space="preserve">Développement d’une application, en suivant les limites de temps fixées par le cahier des charges</t>
@@ -186,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,6 +267,7 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
+      <color rgb="FF81D41A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -276,6 +281,7 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF81D41A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -288,6 +294,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -295,7 +307,13 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
-      <color rgb="FFACB20C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF158466"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -597,7 +615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,16 +712,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -731,7 +757,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -760,7 +786,7 @@
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFACB20C"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -786,11 +812,11 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.24"/>
@@ -867,7 +893,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -949,41 +975,39 @@
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19" t="n">
-        <v>45582</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="B10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="21"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="19" t="n">
-        <v>45582</v>
+      <c r="A11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
+      <c r="A12" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="19" t="n">
         <v>45679</v>
@@ -991,7 +1015,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="22"/>
@@ -999,25 +1023,23 @@
     </row>
     <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>45231</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="19" t="n">
         <v>45757</v>
@@ -1034,8 +1056,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>32</v>
+      <c r="A15" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="19" t="n">
         <v>45234</v>
@@ -1045,46 +1067,48 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="19" t="n">
         <v>45352</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="19" t="n">
         <v>45474</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="22"/>
@@ -1095,12 +1119,12 @@
     </row>
     <row r="19" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="22"/>
@@ -1111,62 +1135,62 @@
     </row>
     <row r="20" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>40</v>
+      <c r="A21" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>45260</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="19" t="n">
         <v>45536</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="20" t="s">
         <v>26</v>
       </c>
@@ -1174,8 +1198,8 @@
       <c r="H23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>43</v>
+      <c r="A24" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B24" s="19" t="n">
         <v>45729</v>

--- a/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
+++ b/Tableau_Compétences/BTS_SIO_Tableau_synthese.xlsx
@@ -190,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,7 +267,6 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
-      <color rgb="FF81D41A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -281,7 +280,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FF81D41A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -294,26 +292,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF158466"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -615,7 +593,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,24 +690,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -757,7 +719,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF158466"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -786,7 +748,7 @@
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -806,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,29 +946,29 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="19" t="n">
@@ -1015,7 +977,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="22"/>
@@ -1028,12 +990,12 @@
       <c r="B13" s="19" t="n">
         <v>45231</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1056,7 +1018,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="19" t="n">
@@ -1067,21 +1029,21 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
@@ -1090,14 +1052,14 @@
       <c r="B17" s="19" t="n">
         <v>45352</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1108,7 +1070,7 @@
       <c r="B18" s="19" t="n">
         <v>45474</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="22"/>
@@ -1124,7 +1086,7 @@
       <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="22"/>
@@ -1143,41 +1105,41 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>45260</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
@@ -1186,11 +1148,11 @@
       <c r="B23" s="19" t="n">
         <v>45536</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="20" t="s">
         <v>26</v>
       </c>
@@ -1208,7 +1170,7 @@
       <c r="D24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="20" t="s">
         <v>26</v>
       </c>
